--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2713.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2713.xlsx
@@ -354,7 +354,7 @@
         <v>2.406704769021466</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.350796654006719</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2713.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2713.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167657884261607</v>
+        <v>1.297536492347717</v>
       </c>
       <c r="B1">
-        <v>2.406704769021466</v>
+        <v>3.58649730682373</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.45299768447876</v>
       </c>
       <c r="D1">
-        <v>2.350796654006719</v>
+        <v>0.9610721468925476</v>
       </c>
       <c r="E1">
-        <v>1.21448547863619</v>
+        <v>1.142241597175598</v>
       </c>
     </row>
   </sheetData>
